--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T01:49:52+02:00</t>
+    <t>2023-04-11T09:32:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:32:34+02:00</t>
+    <t>2023-04-18T13:51:55+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T13:51:55+02:00</t>
+    <t>2023-04-18T14:05:08+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T14:05:08+02:00</t>
+    <t>2023-04-19T23:41:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T23:41:28+02:00</t>
+    <t>2023-04-19T23:48:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T23:48:27+02:00</t>
+    <t>2023-04-27T14:52:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from virtual-service-" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from contact-point-sy" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from ContactPointSyst" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:52:10+02:00</t>
+    <t>2023-07-20T11:38:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,10 +103,10 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/virtual-service-type</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
+    <t>urn:oid:2.16.840.1.113883.4.642.4.1809</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/contact-point-system</t>
   </si>
 </sst>
 </file>
@@ -228,10 +228,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T11:38:03+02:00</t>
+    <t>2023-07-20T13:16:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T13:16:53+02:00</t>
+    <t>2023-07-21T08:53:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T08:53:22+02:00</t>
+    <t>2023-07-21T09:07:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/no-basis-virtual-service-type-vs</t>
+    <t>http://hl7.no/fhir/ValueSet/no-basis-virtual-service-type-vs</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>2.2.0-alpha</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T09:07:54+02:00</t>
+    <t>2023-08-24T14:49:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example codes for possible virtual service connection types.</t>
+    <t>Example codes for virtual service connection types. Any other codes or codesystem should be added to this valueSet</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T14:49:19+02:00</t>
+    <t>2023-08-24T15:39:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T15:39:37+02:00</t>
+    <t>2023-10-04T22:15:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:15:59+02:00</t>
+    <t>2023-10-04T22:20:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:20:28+02:00</t>
+    <t>2023-10-05T18:44:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:44:58+02:00</t>
+    <t>2023-10-05T18:59:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example codes for virtual service connection types. Any other codes or codesystem should be added to this valueSet</t>
+    <t>Example codes for possible virtual service connection types.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:59:01+02:00</t>
+    <t>2023-10-05T22:34:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +79,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example codes for possible virtual service connection types.</t>
+    <t>Example codes for virtual service connection types. Any other codes or codesystem should be added to this valueSet</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -302,58 +305,60 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -375,28 +380,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -418,28 +423,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/output/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -61,13 +61,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T22:34:13+02:00</t>
+    <t>2023-10-05T23:14:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Example Publisher</t>
+    <t>Hl7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
